--- a/biology/Microbiologie/Folliculinidae/Folliculinidae.xlsx
+++ b/biology/Microbiologie/Folliculinidae/Folliculinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Folliculinidae sont une famille de Ciliés de la classe des Heterotrichea et de l’ordre des Heterotrichida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Folliculina, dérivé du latin folliculus, « petit sac » ou « petite feuille », selon Charles d'Orbigny[1], en référence à la forme de la loge de l'animal.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Folliculina, dérivé du latin folliculus, « petit sac » ou « petite feuille », selon Charles d'Orbigny, en référence à la forme de la loge de l'animal.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (24 janvier 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (24 janvier 2023) :
 Ampullofolliculina Hadzi, 1951
 Ascobius Henneguy, 1884
 Ascohnissimplex
@@ -565,7 +581,7 @@
 Lagotia Wright, 1857
 Latifolliculina Hadzi, 1951
 Magnifolliculina
-Metafolliculina Dons, 1925[3],[note 1]
+Metafolliculina Dons, 1925,[note 1]
 Mirofolliculina Dons, 1927
 Nannocladinella Deflandre &amp; Deunff, 1957
 Orthofolliculina
@@ -611,10 +627,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Folliculinidae Dons, 1914[4].
-Le genre Folliculina a été rapproché de Cothurnia[note 2] par Ehrenberg en 1831 et de Vaginicola[note 3] Lamark par Bory de Saint Vincent, deux genres de la famille des Vaginicolidae[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Folliculinidae Dons, 1914.
+Le genre Folliculina a été rapproché de Cothurnia[note 2] par Ehrenberg en 1831 et de Vaginicola[note 3] Lamark par Bory de Saint Vincent, deux genres de la famille des Vaginicolidae.
 </t>
         </is>
       </c>
@@ -643,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Carl Dons, 1914, Folliculina-Studien IV. Vorläufige Bemerkungen über die Systematik der Folliculiniden nebst Beschreibung neuer norwegischen [sie] Arten. — Tromso Mus. Aarsh. 35-36 (years 1912-1913): 59-92, Pl. 1,2.</t>
         </is>
